--- a/biology/Botanique/Deschampsia_mildbraedii/Deschampsia_mildbraedii.xlsx
+++ b/biology/Botanique/Deschampsia_mildbraedii/Deschampsia_mildbraedii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Deschampsia mildbraedii Pilg. est une espèce de plantes du genre Deschampsia et de la famille des Poaceae. Elle est endémique de la ligne montagneuse du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique mildbraedi rend hommage au botaniste Gottfried Wilhelm Johannes Mildbraed, spécialiste de la flore d'Afrique centrale[2], qui découvrit les premiers spécimens au mont Cameroun en 1928[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique mildbraedi rend hommage au botaniste Gottfried Wilhelm Johannes Mildbraed, spécialiste de la flore d'Afrique centrale, qui découvrit les premiers spécimens au mont Cameroun en 1928.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante pérenne, densément touffue avec de nombreuses innovations intravaginales, cette espèce présente des tiges (chaumes) minces, légèrement géniculées, pouvant atteindre 1,2 m de haut, aux entrenœuds inférieurs insérés dans la gaine foliaire ou légèrement exsertes. Les feuilles sont surtout basales avec des gaines lâches, ruguleuses ou presque lisses[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante pérenne, densément touffue avec de nombreuses innovations intravaginales, cette espèce présente des tiges (chaumes) minces, légèrement géniculées, pouvant atteindre 1,2 m de haut, aux entrenœuds inférieurs insérés dans la gaine foliaire ou légèrement exsertes. Les feuilles sont surtout basales avec des gaines lâches, ruguleuses ou presque lisses.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Deschampsia mildbreadii se trouve dans les prairies montagnardes à une altitude comprise entre 2 000-3 000 et 4 000 m.
-Relativement rare, l'espèce a été observée au mont Cameroun et à l'est de Bamenda (Cameroun), également au Nigeria[5].
+Relativement rare, l'espèce a été observée au mont Cameroun et à l'est de Bamenda (Cameroun), également au Nigeria.
 </t>
         </is>
       </c>
